--- a/抽奖权重信息新.xlsx
+++ b/抽奖权重信息新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zen/Github/forPrize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D2ED3-6E44-8344-968A-0329477C7B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D8817-A031-994C-9AD8-D952C9824E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{5C3CD0AA-2405-E14E-A4E3-3AC95CA51A00}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28620" windowHeight="17440" activeTab="1" xr2:uid="{5C3CD0AA-2405-E14E-A4E3-3AC95CA51A00}"/>
   </bookViews>
   <sheets>
     <sheet name="群成员对应表" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>QQ号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +71,9 @@
   </si>
   <si>
     <t>347042553</t>
+  </si>
+  <si>
+    <t>UCUCxSYTBkYyEJG9UWMMyTZA</t>
   </si>
 </sst>
 </file>
@@ -459,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329F33E-D409-5840-9D55-94B83283A94E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -508,6 +502,9 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -517,10 +514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9A7B8-D3C7-5C4E-98F2-3FD6ADD74AC5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -597,6 +594,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/抽奖权重信息新.xlsx
+++ b/抽奖权重信息新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zen/Github/forPrize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D8817-A031-994C-9AD8-D952C9824E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B3E956-F9AF-4643-BF3E-D41EEB292BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28620" windowHeight="17440" activeTab="1" xr2:uid="{5C3CD0AA-2405-E14E-A4E3-3AC95CA51A00}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28620" windowHeight="17440" xr2:uid="{5C3CD0AA-2405-E14E-A4E3-3AC95CA51A00}"/>
   </bookViews>
   <sheets>
     <sheet name="群成员对应表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>QQ号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,13 @@
   </si>
   <si>
     <t>UCUCxSYTBkYyEJG9UWMMyTZA</t>
+  </si>
+  <si>
+    <t>488782579</t>
+  </si>
+  <si>
+    <t>809481244</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5329F33E-D409-5840-9D55-94B83283A94E}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -506,6 +513,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -516,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9A7B8-D3C7-5C4E-98F2-3FD6ADD74AC5}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/抽奖权重信息新.xlsx
+++ b/抽奖权重信息新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zen/Github/forPrize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B3E956-F9AF-4643-BF3E-D41EEB292BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F8FB89-128D-3246-95CC-506B7D6E7DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28620" windowHeight="17440" xr2:uid="{5C3CD0AA-2405-E14E-A4E3-3AC95CA51A00}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>QQ号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,9 @@
   <si>
     <t>809481244</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC5ISOxGi6lFIvi3uhpRXbng</t>
   </si>
 </sst>
 </file>
@@ -461,12 +464,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -519,6 +525,9 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -529,18 +538,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A9A7B8-D3C7-5C4E-98F2-3FD6ADD74AC5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -610,8 +619,22 @@
       </c>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
